--- a/SmartSSO/Content/Template/生产效率模板.xlsx
+++ b/SmartSSO/Content/Template/生产效率模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>材质</t>
   </si>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -628,6 +628,23 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>70</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
